--- a/searchlist/media/order_summary.xlsx
+++ b/searchlist/media/order_summary.xlsx
@@ -453,16 +453,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>subtotal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>stock</t>
         </is>
       </c>
@@ -470,12 +460,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>DXPV6EP-ICN</t>
+          <t>MR-ADDL02M</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>₹297400.00</t>
+          <t>₹8800.00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -485,51 +475,21 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>₹392568.00</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>ready</t>
+          <t>1week</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>DXPV6ST-ICN</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>₹156800.00</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>₹159936.00</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>1month</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/searchlist/media/order_summary.xlsx
+++ b/searchlist/media/order_summary.xlsx
@@ -438,22 +438,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>SubTotal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
         </is>
       </c>
     </row>
@@ -465,31 +475,45 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>₹8800.00</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>8800.00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>1week</t>
+          <t>4400.00</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>ready</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>4400.00</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/searchlist/media/order_summary.xlsx
+++ b/searchlist/media/order_summary.xlsx
@@ -60,8 +60,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,18 +431,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>Catlog</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -457,11 +468,6 @@
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Discount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
@@ -470,28 +476,23 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>MR-ADDL02M</t>
+          <t>FX3S-10MR/ES</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>8800.00</t>
+          <t>15200.00</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>4400.00</t>
+          <t>16720.00</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
@@ -500,20 +501,42 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>FX3S-20MT/ESS</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>23950.00</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>29698.00</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>4400.00</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46418.00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/searchlist/media/order_summary.xlsx
+++ b/searchlist/media/order_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,8 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,6 +470,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Stock</t>
         </is>
       </c>
@@ -476,7 +482,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>FX3S-10MR/ES</t>
+          <t>FX3S-10MR/DS</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -485,14 +491,19 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>16720.00</t>
+          <t>10032.00</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
@@ -501,7 +512,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>FX3S-20MT/ESS</t>
+          <t>FX3S-20MT/DSS</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -510,14 +521,19 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>29698.00</t>
+          <t>21076.00</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
@@ -533,10 +549,13 @@
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46418.00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
+          <t>31108.00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
